--- a/Sistema de Facturación.xlsx
+++ b/Sistema de Facturación.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/naranjaymedia/clientes/naranjaymedia/sistemafacturacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291DE13-5A8D-0045-98E8-5533D5DA1D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD16B674-77B2-2644-B84C-4753FB88C4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{C83C226A-D6F2-D140-AEE3-0ADDCA64BB98}"/>
+    <workbookView xWindow="76800" yWindow="500" windowWidth="38400" windowHeight="20120" xr2:uid="{C83C226A-D6F2-D140-AEE3-0ADDCA64BB98}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="DBB" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Creación de Tablas" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="311">
   <si>
     <t>Descripción</t>
   </si>
@@ -429,18 +431,6 @@
     <t>Contraseña</t>
   </si>
   <si>
-    <t>admin@cliente.com</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>facturador@cliente.com</t>
-  </si>
-  <si>
-    <t>lector@cliente.com</t>
-  </si>
-  <si>
     <t>Header responsive con menú hamburguesa, logo, submenús dinámicos.</t>
   </si>
   <si>
@@ -451,9 +441,6 @@
   </si>
   <si>
     <t>│   │   ├── index.php</t>
-  </si>
-  <si>
-    <t>│   │   └── /sistemafacturacion/</t>
   </si>
   <si>
     <t>│   │       ├── /pdf/</t>
@@ -549,33 +536,21 @@
     <t>int (PK)</t>
   </si>
   <si>
-    <t>Identificador único del cliente SaaS</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
     <t>varchar(100)</t>
   </si>
   <si>
-    <t>Nombre de la empresa</t>
-  </si>
-  <si>
     <t>subdominio</t>
   </si>
   <si>
-    <t>Subdominio usado para acceso (ej. ccic)</t>
-  </si>
-  <si>
     <t>rtn</t>
   </si>
   <si>
     <t>varchar(25)</t>
   </si>
   <si>
-    <t>RTN de la empresa</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -586,18 +561,6 @@
   </si>
   <si>
     <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>URL del logo institucional</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>Fecha de creación del cliente SaaS</t>
   </si>
   <si>
     <t>👤 2. usuarios</t>
@@ -812,9 +775,6 @@
   </si>
   <si>
     <t>🧾 7. facturas</t>
-  </si>
-  <si>
-    <t>Cabecera de factura generada.</t>
   </si>
   <si>
     <t>ID de factura</t>
@@ -1210,12 +1170,295 @@
       <t xml:space="preserve"> dentro de una factura asegura el control fiscal del SAR.</t>
     </r>
   </si>
+  <si>
+    <t>admin@naranjaymediahn.com</t>
+  </si>
+  <si>
+    <t>facturador@naranjaymediahn.com</t>
+  </si>
+  <si>
+    <t>lector@naranjaymediahn.com</t>
+  </si>
+  <si>
+    <t>admin123$$**</t>
+  </si>
+  <si>
+    <t>Identificador único</t>
+  </si>
+  <si>
+    <t>Nombre corto o comercial</t>
+  </si>
+  <si>
+    <t>razon_social</t>
+  </si>
+  <si>
+    <t>Subdominio de acceso (ej: ccic)</t>
+  </si>
+  <si>
+    <t>RTN fiscal de la empresa</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Teléfono institucional</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>Dirección de la empresa</t>
+  </si>
+  <si>
+    <t>Logo de la empresa</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>enum('activo','inactivo')</t>
+  </si>
+  <si>
+    <t>Estado del cliente</t>
+  </si>
+  <si>
+    <t>tipo_plan</t>
+  </si>
+  <si>
+    <t>Plan contratado (ej: basico, avanzado)</t>
+  </si>
+  <si>
+    <t>certificado_digital</t>
+  </si>
+  <si>
+    <t>Ruta al certificado digital (si aplica)</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>Fecha de alta del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-- Base de Datos: Sistema de Facturación SaaS
+-- Fecha de generación: 2025-06-20 23:19:27
+CREATE TABLE clientes_saas (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    nombre VARCHAR(100),
+    razon_social VARCHAR(255),
+    subdominio VARCHAR(100) UNIQUE,
+    rtn VARCHAR(25),
+    email VARCHAR(100),
+    telefono VARCHAR(20),
+    direccion VARCHAR(250) NOT NULL,
+    logo_url VARCHAR(255),
+    estado ENUM('activo', 'inactivo') DEFAULT 'activo',
+    tipo_plan VARCHAR(50) DEFAULT 'basico',
+    certificado_digital VARCHAR(255),
+    fecha_creacion DATETIME DEFAULT CURRENT_TIMESTAMP
+);
+CREATE TABLE usuarios (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    nombre VARCHAR(100),
+    correo VARCHAR(100) UNIQUE,
+    clave VARCHAR(255),
+    rol ENUM('admin', 'facturador', 'lector'),
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE
+);
+CREATE TABLE establecimientos (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    nombre VARCHAR(100),
+    codigo_establecimiento VARCHAR(3),
+    codigo_punto VARCHAR(3),
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE
+);
+CREATE TABLE cai_rangos (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    establecimiento_id INT,
+    cai VARCHAR(45),
+    rango_inicio INT,
+    rango_fin INT,
+    correlativo_actual INT,
+    fecha_recepcion DATE,
+    fecha_limite DATE,
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE,
+    FOREIGN KEY (establecimiento_id) REFERENCES establecimientos(id) ON DELETE CASCADE
+);
+CREATE TABLE clientes_factura (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    nombre VARCHAR(100),
+    rtn VARCHAR(25),
+    direccion TEXT,
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE
+);
+CREATE TABLE productos (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    nombre VARCHAR(100),
+    descripcion TEXT,
+    precio DECIMAL(10,2),
+    aplica_isv TINYINT(1),
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE
+);
+CREATE TABLE facturas (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    cliente_id INT,
+    cai_id INT,
+    receptor_id INT,
+    correlativo VARCHAR(25),
+    fecha_emision DATETIME,
+    subtotal DECIMAL(10,2),
+    isv_15 DECIMAL(10,2),
+    isv_18 DECIMAL(10,2),
+    total DECIMAL(10,2),
+    pdf_url VARCHAR(255),
+    FOREIGN KEY (cliente_id) REFERENCES clientes_saas(id) ON DELETE CASCADE,
+    FOREIGN KEY (cai_id) REFERENCES cai_rangos(id),
+    FOREIGN KEY (receptor_id) REFERENCES clientes_factura(id)
+);
+CREATE TABLE factura_items (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    factura_id INT,
+    producto_id INT,
+    cantidad INT,
+    precio_unitario DECIMAL(10,2),
+    subtotal DECIMAL(10,2),
+    isv_aplicado DECIMAL(10,2),
+    FOREIGN KEY (factura_id) REFERENCES facturas(id) ON DELETE CASCADE,
+    FOREIGN KEY (producto_id) REFERENCES productos(id)
+);
+CREATE TABLE configuracion_sistema (
+    id INT AUTO_INCREMENT PRIMARY KEY,
+    nombre_empresa VARCHAR(150),
+    rtn VARCHAR(25),
+    telefono VARCHAR(25),
+    correo VARCHAR(100),
+    direccion TEXT,
+    certificador_nombre VARCHAR(150),
+    certificador_rtn VARCHAR(25),
+    numero_certificado VARCHAR(50),
+    footer_factura TEXT
+);</t>
+  </si>
+  <si>
+    <t>Relación con clientes_saas</t>
+  </si>
+  <si>
+    <t>exonerado</t>
+  </si>
+  <si>
+    <t>1 = Sí, 0 = No</t>
+  </si>
+  <si>
+    <t>orden_compra_exenta</t>
+  </si>
+  <si>
+    <t>No. de orden de compra exenta</t>
+  </si>
+  <si>
+    <t>constancia_registro</t>
+  </si>
+  <si>
+    <t>No. de constancia de registro exonerados</t>
+  </si>
+  <si>
+    <t>registro_sag</t>
+  </si>
+  <si>
+    <t>No. de registro SAG</t>
+  </si>
+  <si>
+    <t>tipo_adquiriente</t>
+  </si>
+  <si>
+    <t>enum('normal', 'exonerado')</t>
+  </si>
+  <si>
+    <t>Clasificación del receptor</t>
+  </si>
+  <si>
+    <t>tasa_cambio_usd_hnl</t>
+  </si>
+  <si>
+    <t>decimal(10,4)</t>
+  </si>
+  <si>
+    <t>Tasa oficial BCH</t>
+  </si>
+  <si>
+    <t>monto_equivalente_usd</t>
+  </si>
+  <si>
+    <t>Monto en USD mostrado en leyenda</t>
+  </si>
+  <si>
+    <t>monto_letras</t>
+  </si>
+  <si>
+    <t>Monto total expresado en letras</t>
+  </si>
+  <si>
+    <t>SOPORTE WEB - MES DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>SOPORTE WEB - MES DE ENERO</t>
+  </si>
+  <si>
+    <t>REDISEÑO/ADAPTACIÓN - UPFM VS REAL ESTELÍ</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - VALLA AGAFAM</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - VALLA UPNFM</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - VALLA JUTICALPA</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - AGAFAM 2025</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - TRIO DE LOS PANCHOS Y LOS DANDYS</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - DARK FUNERAL</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - OLANCHO VS MOTAGUA</t>
+  </si>
+  <si>
+    <t>ADAPTACIóN DE DISEñO - GENESIS VS UPNFM</t>
+  </si>
+  <si>
+    <t>EDICIóN DE VIDEO BáSICO RRSS - AGAFAM - INDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gravado_total </t>
+  </si>
+  <si>
+    <t>impoirte_gravado_15</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;L&quot;#,##0.00;[Red]\-&quot;L&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;L&quot;* #,##0.00_-;\-&quot;L&quot;* #,##0.00_-;_-&quot;L&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;L&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1253,6 +1496,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1262,7 +1532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1270,11 +1540,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1285,6 +1570,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,13 +1616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>74860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1669,16 +1976,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E3AC2C-BA58-864A-B4CC-3E791D0A0F03}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="119.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1730,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1738,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1746,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1754,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1762,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1770,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1778,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1786,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1795,15 +2114,23 @@
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1813,8 +2140,11 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1825,7 +2155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1835,27 +2165,36 @@
       <c r="C21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1863,7 +2202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +2210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1879,16 +2218,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +2235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1904,7 +2243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2021,231 +2360,2237 @@
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="D54">
+        <v>10009484</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="D55">
+        <v>10009488</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="F81" s="20"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="F82" s="20"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="F83" s="20"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="F85" s="20"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="20"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="20"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="20"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+      <c r="F92" s="20"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>109</v>
-      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F94" s="20"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F95" s="20"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F96" s="20"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+    </row>
+    <row r="97" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F97" s="20"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+    </row>
+    <row r="98" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F98" s="20"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+    </row>
+    <row r="99" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F99" s="20"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+    </row>
+    <row r="100" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F100" s="20"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+    </row>
+    <row r="101" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F101" s="20"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+    </row>
+    <row r="102" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F102" s="20"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+    </row>
+    <row r="103" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F103" s="20"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+    </row>
+    <row r="104" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F104" s="20"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+    </row>
+    <row r="105" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F105" s="20"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+    </row>
+    <row r="106" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F106" s="20"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+    </row>
+    <row r="107" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F107" s="20"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+    </row>
+    <row r="108" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F108" s="20"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+    </row>
+    <row r="109" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F109" s="20"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+    </row>
+    <row r="110" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F110" s="20"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+    </row>
+    <row r="111" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F111" s="20"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+    </row>
+    <row r="112" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F112" s="20"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+    </row>
+    <row r="113" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F113" s="20"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+    </row>
+    <row r="114" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F114" s="20"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+    </row>
+    <row r="115" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F115" s="20"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+    </row>
+    <row r="116" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F116" s="20"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+    </row>
+    <row r="117" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F117" s="20"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+    </row>
+    <row r="118" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F118" s="20"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+    </row>
+    <row r="119" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F119" s="20"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+    </row>
+    <row r="120" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F120" s="20"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+    </row>
+    <row r="121" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F121" s="20"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+    </row>
+    <row r="122" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F122" s="20"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+    </row>
+    <row r="123" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F123" s="20"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+    </row>
+    <row r="124" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F124" s="20"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+    </row>
+    <row r="125" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F125" s="20"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="12"/>
+    </row>
+    <row r="126" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F126" s="20"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+    </row>
+    <row r="127" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F127" s="20"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+    </row>
+    <row r="128" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F128" s="20"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+    </row>
+    <row r="129" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F129" s="20"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="12"/>
+    </row>
+    <row r="130" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F130" s="20"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+    </row>
+    <row r="131" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F131" s="20"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+    </row>
+    <row r="132" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F132" s="20"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+    </row>
+    <row r="133" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F133" s="20"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+    </row>
+    <row r="134" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F134" s="20"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+    </row>
+    <row r="135" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F135" s="20"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+    </row>
+    <row r="136" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F136" s="20"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+    </row>
+    <row r="137" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F137" s="20"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+    </row>
+    <row r="138" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F138" s="20"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+    </row>
+    <row r="139" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F139" s="20"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+    </row>
+    <row r="140" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F140" s="20"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+    </row>
+    <row r="141" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F141" s="20"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+    </row>
+    <row r="142" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F142" s="20"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+    </row>
+    <row r="143" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F143" s="20"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+    </row>
+    <row r="144" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F144" s="20"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+    </row>
+    <row r="145" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F145" s="20"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+    </row>
+    <row r="146" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F146" s="20"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+    </row>
+    <row r="147" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F147" s="20"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+    </row>
+    <row r="148" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F148" s="20"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+    </row>
+    <row r="149" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F149" s="20"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+    </row>
+    <row r="150" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F150" s="20"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+    </row>
+    <row r="151" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F151" s="20"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+    </row>
+    <row r="152" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F152" s="20"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+    </row>
+    <row r="153" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F153" s="20"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+    </row>
+    <row r="154" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F154" s="20"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+    </row>
+    <row r="155" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F155" s="20"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+    </row>
+    <row r="156" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F156" s="20"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+    </row>
+    <row r="157" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F157" s="20"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+    </row>
+    <row r="158" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F158" s="20"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+    </row>
+    <row r="159" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F159" s="20"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+    </row>
+    <row r="160" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F160" s="20"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+    </row>
+    <row r="161" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F161" s="20"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+    </row>
+    <row r="162" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F162" s="20"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+    </row>
+    <row r="163" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F163" s="20"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+    </row>
+    <row r="164" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F164" s="20"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+    </row>
+    <row r="165" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F165" s="20"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+    </row>
+    <row r="166" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F166" s="20"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+    </row>
+    <row r="167" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F167" s="20"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+    </row>
+    <row r="168" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F168" s="20"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+    </row>
+    <row r="169" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F169" s="20"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+    </row>
+    <row r="170" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F170" s="20"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+    </row>
+    <row r="171" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F171" s="20"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+    </row>
+    <row r="172" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F172" s="20"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+    </row>
+    <row r="173" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F173" s="20"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+    </row>
+    <row r="174" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F174" s="20"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+    </row>
+    <row r="175" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F175" s="20"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+    </row>
+    <row r="176" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F176" s="20"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+    </row>
+    <row r="177" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F177" s="20"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+    </row>
+    <row r="178" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F178" s="20"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+    </row>
+    <row r="179" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F179" s="20"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+    </row>
+    <row r="180" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F180" s="20"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+    </row>
+    <row r="181" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F181" s="20"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+    </row>
+    <row r="182" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F182" s="20"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+    </row>
+    <row r="183" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F183" s="20"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+    </row>
+    <row r="184" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F184" s="20"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+    </row>
+    <row r="185" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F185" s="20"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+    </row>
+    <row r="186" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F186" s="20"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+    </row>
+    <row r="187" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F187" s="20"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+    </row>
+    <row r="188" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F188" s="20"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+    </row>
+    <row r="189" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F189" s="20"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+    </row>
+    <row r="190" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F190" s="20"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+    </row>
+    <row r="191" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F191" s="20"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+    </row>
+    <row r="192" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F192" s="20"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+    </row>
+    <row r="193" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F193" s="20"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+    </row>
+    <row r="194" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F194" s="20"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+    </row>
+    <row r="195" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F195" s="20"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+    </row>
+    <row r="196" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F196" s="20"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+    </row>
+    <row r="197" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F197" s="20"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+    </row>
+    <row r="198" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F198" s="20"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+    </row>
+    <row r="199" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F199" s="20"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+    </row>
+    <row r="200" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F200" s="20"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+    </row>
+    <row r="201" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F201" s="20"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+    </row>
+    <row r="202" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F202" s="20"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+    </row>
+    <row r="203" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F203" s="20"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+    </row>
+    <row r="204" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F204" s="20"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="12"/>
+    </row>
+    <row r="205" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F205" s="20"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+    </row>
+    <row r="206" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F206" s="20"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="12"/>
+    </row>
+    <row r="207" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F207" s="20"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+    </row>
+    <row r="208" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F208" s="20"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+    </row>
+    <row r="209" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F209" s="20"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="12"/>
+      <c r="P209" s="12"/>
+    </row>
+    <row r="210" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F210" s="20"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+    </row>
+    <row r="211" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F211" s="20"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="12"/>
+    </row>
+    <row r="212" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F212" s="20"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+    </row>
+    <row r="213" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F213" s="20"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
+      <c r="P213" s="12"/>
+    </row>
+    <row r="214" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F214" s="20"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
+      <c r="P214" s="12"/>
+    </row>
+    <row r="215" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F215" s="20"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="12"/>
+      <c r="N215" s="12"/>
+      <c r="O215" s="12"/>
+      <c r="P215" s="12"/>
+    </row>
+    <row r="216" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F216" s="20"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
+      <c r="P216" s="12"/>
+    </row>
+    <row r="217" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F217" s="20"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
+      <c r="P217" s="12"/>
+    </row>
+    <row r="218" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F218" s="20"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="12"/>
+    </row>
+    <row r="219" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F219" s="20"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="12"/>
+      <c r="M219" s="12"/>
+      <c r="N219" s="12"/>
+      <c r="O219" s="12"/>
+      <c r="P219" s="12"/>
+    </row>
+    <row r="220" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F220" s="20"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="12"/>
+      <c r="P220" s="12"/>
+    </row>
+    <row r="221" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F221" s="20"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="12"/>
+      <c r="P221" s="12"/>
+    </row>
+    <row r="222" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F222" s="20"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
+    </row>
+    <row r="223" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F223" s="20"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="12"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+    </row>
+    <row r="224" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F224" s="20"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2256,46 +4601,48 @@
     <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CD0C44-BF99-7549-9113-3C1901559F83}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="73.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -2303,932 +4650,1093 @@
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
         <v>141</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B52" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B56" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B86" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="C86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
         <v>125</v>
       </c>
-      <c r="C64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B79" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" t="s">
-        <v>204</v>
-      </c>
-      <c r="C81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B93" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>228</v>
+      <c r="C103" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>229</v>
+      <c r="A104" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C107" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B108" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B109" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B110" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119" t="s">
         <v>218</v>
       </c>
-      <c r="B112" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B113" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>249</v>
       </c>
-      <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="148" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" t="s">
+    <row r="150" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B126" t="s">
-        <v>193</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="152" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B127" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B129" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B130" t="s">
-        <v>193</v>
-      </c>
-      <c r="C130" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3238,4 +5746,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C00647B-355A-2747-B779-B2A1F79AADC0}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D1" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>300</v>
+      </c>
+      <c r="D4" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>300</v>
+      </c>
+      <c r="D5" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>300</v>
+      </c>
+      <c r="D6" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>300</v>
+      </c>
+      <c r="D7" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>300</v>
+      </c>
+      <c r="D8" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>300</v>
+      </c>
+      <c r="D9" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>300</v>
+      </c>
+      <c r="D10" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>300</v>
+      </c>
+      <c r="D11" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>300</v>
+      </c>
+      <c r="D12" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <f>SUM(D1:D12)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <f>D13*0.15</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="9">
+        <f>SUM(D13:D14)</f>
+        <v>10350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6CA029-1959-1C4D-B091-B8DAD57623E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>